--- a/KH_HUE_T07_ClassDiagram_v2.0.xlsx
+++ b/KH_HUE_T07_ClassDiagram_v2.0.xlsx
@@ -14,135 +14,144 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="46">
   <si>
     <t>PHIENDAUGIA</t>
   </si>
   <si>
-    <t>MaPDG</t>
-  </si>
-  <si>
-    <t>TieuDe</t>
-  </si>
-  <si>
-    <t>MaSP</t>
-  </si>
-  <si>
-    <t>GiaKhoiDiem</t>
-  </si>
-  <si>
-    <t>GiaToiThieu</t>
-  </si>
-  <si>
-    <t>GiaMuaNgay</t>
-  </si>
-  <si>
-    <t>MoTa</t>
-  </si>
-  <si>
-    <t>HinhAnh</t>
-  </si>
-  <si>
-    <t>TGBatDau</t>
-  </si>
-  <si>
-    <t>TGKetThuc</t>
-  </si>
-  <si>
-    <t>GanThe</t>
-  </si>
-  <si>
-    <t>ThemPDG()</t>
-  </si>
-  <si>
-    <t>XoaPDG()</t>
-  </si>
-  <si>
-    <t>HienThiPDG()</t>
-  </si>
-  <si>
-    <t>TenSP</t>
-  </si>
-  <si>
-    <t>Tag</t>
-  </si>
-  <si>
-    <t>MaTV</t>
-  </si>
-  <si>
-    <t>ThemSP()</t>
-  </si>
-  <si>
-    <t>XoaSP()</t>
-  </si>
-  <si>
-    <t>HienThiSP()</t>
-  </si>
-  <si>
     <t>SANPHAM</t>
   </si>
   <si>
-    <t>TAIKHOAN</t>
-  </si>
-  <si>
-    <t>TenTV</t>
-  </si>
-  <si>
-    <t>GioiTinh</t>
-  </si>
-  <si>
-    <t>NgaySinh</t>
-  </si>
-  <si>
-    <t>DiaChi</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>SDT</t>
-  </si>
-  <si>
-    <t>SoDu</t>
-  </si>
-  <si>
-    <t>TrangThai</t>
-  </si>
-  <si>
     <t>THANHVIEN</t>
   </si>
   <si>
-    <t>ThemTV()</t>
-  </si>
-  <si>
-    <t>XoaTV()</t>
-  </si>
-  <si>
-    <t>HienThiTV()</t>
-  </si>
-  <si>
-    <t>Cho phép hoạt động, Bị chặn tạm thời hoặc bị Chặn vĩnh viễn</t>
-  </si>
-  <si>
-    <t>MaTK</t>
-  </si>
-  <si>
-    <t>KiemTraHopLe()</t>
-  </si>
-  <si>
-    <t>HienThiSoDu()</t>
-  </si>
-  <si>
-    <t>CapNhatThongTinCaNhan()</t>
-  </si>
-  <si>
-    <t>ChinhSuaPDG()</t>
-  </si>
-  <si>
-    <t>ChinhSuaSP()</t>
-  </si>
-  <si>
-    <t>ChinhSuaTV()</t>
+    <t>CUOCDAUGIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chinhSuaPDG(PHIENDAUGIA pdg) :void </t>
+  </si>
+  <si>
+    <t>themPDG(PHIENDAUGIA pdg)  : void</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xoaPDG(String maPDG) : void </t>
+  </si>
+  <si>
+    <t xml:space="preserve">layThongTin() : PHIENDAUGIA </t>
+  </si>
+  <si>
+    <t>maPDG : String</t>
+  </si>
+  <si>
+    <t>tieuDe : String</t>
+  </si>
+  <si>
+    <t>moTa  : String</t>
+  </si>
+  <si>
+    <t>ganThe  : String</t>
+  </si>
+  <si>
+    <t>maSP : String</t>
+  </si>
+  <si>
+    <t>tenSP : String</t>
+  </si>
+  <si>
+    <t>moTa : String</t>
+  </si>
+  <si>
+    <t>ganThe : String</t>
+  </si>
+  <si>
+    <t>maTV : String</t>
+  </si>
+  <si>
+    <t>tenTV : String</t>
+  </si>
+  <si>
+    <t>diaChi : String</t>
+  </si>
+  <si>
+    <t>email : String</t>
+  </si>
+  <si>
+    <t>soDT : String</t>
+  </si>
+  <si>
+    <t>giaKhoiDiem : Double</t>
+  </si>
+  <si>
+    <t>giaToiThieu : Double</t>
+  </si>
+  <si>
+    <t>giaMuaNgay : Double</t>
+  </si>
+  <si>
+    <t>soDu : Double</t>
+  </si>
+  <si>
+    <t>soTienDat : Double</t>
+  </si>
+  <si>
+    <t>tgBatDau : DateTime</t>
+  </si>
+  <si>
+    <t>tgKetThuc : DateTime</t>
+  </si>
+  <si>
+    <t>thoiGian : DateTime</t>
+  </si>
+  <si>
+    <t>trangThai : DateTime</t>
+  </si>
+  <si>
+    <t>ngaySinh : DateTime</t>
+  </si>
+  <si>
+    <t>gioiTinh : Boolean</t>
+  </si>
+  <si>
+    <t>hinhAnh : Object</t>
+  </si>
+  <si>
+    <t>themSP(SANPHAM sp)  : void</t>
+  </si>
+  <si>
+    <t>chinhSuaSP(SANPHAM sp)  : void</t>
+  </si>
+  <si>
+    <t>layThongTin() : SANPHAM</t>
+  </si>
+  <si>
+    <t>xoaSP(String maSP) : void</t>
+  </si>
+  <si>
+    <t>Cho phép hoạt động hoặc bị chặn</t>
+  </si>
+  <si>
+    <t>layThongTin() : CUOCDAUGIA</t>
+  </si>
+  <si>
+    <t>themDauGia(CUOCDAUGIA cdg) : void</t>
+  </si>
+  <si>
+    <t>themTV(THANHVIEN tv) : void</t>
+  </si>
+  <si>
+    <t>capNhatThongTin(THANHVIEN tv) : void</t>
+  </si>
+  <si>
+    <t>kiemTraHopLe(String maTV) : boolean</t>
+  </si>
+  <si>
+    <t>layThongTin() : THANHVIEN</t>
+  </si>
+  <si>
+    <t>napTien(Double soTien,String maTV) : void</t>
+  </si>
+  <si>
+    <t>rutTien(Double soTien,String maTV) : void</t>
   </si>
 </sst>
 </file>
@@ -245,12 +254,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -276,6 +284,751 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Connector 2"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1619250" y="847725"/>
+          <a:ext cx="1666875" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="256160" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1628775" y="619125"/>
+          <a:ext cx="256160" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>0</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="258789" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="TextBox 4"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3933825" y="600075"/>
+          <a:ext cx="258789" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>n</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Connector 5"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4276725" y="781050"/>
+          <a:ext cx="1866900" cy="19051"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="256160" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="TextBox 6"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5867400" y="533400"/>
+          <a:ext cx="256160" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="258789" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="TextBox 7"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4276725" y="523875"/>
+          <a:ext cx="258789" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>n</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Straight Connector 8"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4286250" y="1400175"/>
+          <a:ext cx="1857375" cy="1866901"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="258789" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="TextBox 9"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4305300" y="2733675"/>
+          <a:ext cx="258789" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="258789" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="TextBox 10"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2990850" y="152400"/>
+          <a:ext cx="258789" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>n</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Straight Connector 11"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1628775" y="990601"/>
+          <a:ext cx="1657350" cy="2295524"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="256160" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="TextBox 12"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3971925" y="2743200"/>
+          <a:ext cx="256160" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="258789" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="TextBox 13"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1724025" y="942975"/>
+          <a:ext cx="258789" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>n</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="Straight Connector 16"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1619250" y="409575"/>
+          <a:ext cx="4505325" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="258789" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="TextBox 20"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5895975" y="171450"/>
+          <a:ext cx="258789" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="258789" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="TextBox 22"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5915025" y="1200150"/>
+          <a:ext cx="258789" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>n</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -565,204 +1318,220 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I16"/>
+  <dimension ref="B2:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6" customWidth="1"/>
+    <col min="2" max="2" width="30.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" customWidth="1"/>
+    <col min="4" max="4" width="9.25" customWidth="1"/>
+    <col min="5" max="5" width="30.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.375" customWidth="1"/>
+    <col min="8" max="8" width="32.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="H2" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="1" t="s">
+      <c r="E5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="12" t="s">
+      <c r="E6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="H8" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="10"/>
+      <c r="H9" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="10"/>
+      <c r="H10" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="10"/>
+      <c r="H11" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="6" t="s">
+      <c r="H16" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="I16" s="10"/>
+    </row>
+    <row r="17" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="I17" s="10"/>
+    </row>
+    <row r="18" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E18" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="H6" s="6" t="s">
+    </row>
+    <row r="19" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E19" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E20" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="9" t="s">
+    <row r="21" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E21" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="H7" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="H8" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="H9" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="H10" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="H11" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="I11" s="14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="9" t="s">
+    </row>
+    <row r="22" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E22" s="8" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="9" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/KH_HUE_T07_ClassDiagram_v2.0.xlsx
+++ b/KH_HUE_T07_ClassDiagram_v2.0.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
   <si>
     <t>PHIENDAUGIA</t>
   </si>
@@ -140,9 +140,6 @@
   </si>
   <si>
     <t>capNhatThongTin(THANHVIEN tv) : void</t>
-  </si>
-  <si>
-    <t>kiemTraHopLe(String maTV) : boolean</t>
   </si>
   <si>
     <t>layThongTin() : THANHVIEN</t>
@@ -1321,7 +1318,7 @@
   <dimension ref="B2:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1473,7 +1470,7 @@
         <v>4</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
@@ -1481,7 +1478,7 @@
         <v>6</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
@@ -1491,17 +1488,14 @@
       <c r="E16" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="H16" s="7" t="s">
-        <v>45</v>
+      <c r="H16" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="I16" s="10"/>
     </row>
     <row r="17" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E17" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>44</v>
       </c>
       <c r="I17" s="10"/>
     </row>

--- a/KH_HUE_T07_ClassDiagram_v2.0.xlsx
+++ b/KH_HUE_T07_ClassDiagram_v2.0.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="46">
   <si>
     <t>PHIENDAUGIA</t>
   </si>
@@ -149,6 +149,9 @@
   </si>
   <si>
     <t>rutTien(Double soTien,String maTV) : void</t>
+  </si>
+  <si>
+    <t>kiemTraHopLe(String maTV) : boolean</t>
   </si>
 </sst>
 </file>
@@ -1318,7 +1321,7 @@
   <dimension ref="B2:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1436,7 +1439,7 @@
         <v>34</v>
       </c>
       <c r="F11" s="10"/>
-      <c r="H11" s="8" t="s">
+      <c r="H11" s="7" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1447,7 +1450,7 @@
       <c r="E12" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="H12" s="12" t="s">
         <v>40</v>
       </c>
       <c r="I12" s="13" t="s">
@@ -1478,7 +1481,7 @@
         <v>6</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
@@ -1488,14 +1491,17 @@
       <c r="E16" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="H16" s="8" t="s">
-        <v>43</v>
+      <c r="H16" s="7" t="s">
+        <v>44</v>
       </c>
       <c r="I16" s="10"/>
     </row>
     <row r="17" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E17" s="5" t="s">
         <v>16</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="I17" s="10"/>
     </row>
